--- a/Assets/Shared/ExcelImporter/Excels/ProbabilityDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/ProbabilityDataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwkim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6D6DDE-5A9C-45AD-AF13-017021B92C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFD20F-D0D9-4A27-B4CD-1A0083372260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="9405" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
   </bookViews>
   <sheets>
     <sheet name="ProbabilityDatas" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,67 +661,79 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>100</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
       <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C3" s="3">
-        <v>30</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3">
         <v>35</v>
       </c>
-      <c r="C5" s="4">
-        <v>42</v>
-      </c>
-      <c r="D5" s="4">
-        <v>22</v>
+      <c r="D5" s="3">
+        <v>15</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>9</v>
@@ -729,39 +741,56 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
         <v>35</v>
       </c>
-      <c r="D6" s="3">
-        <v>35</v>
+      <c r="D6" s="4">
+        <v>30</v>
       </c>
       <c r="E6" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B8" s="3">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
         <v>30</v>
       </c>
-      <c r="D7" s="3">
-        <v>40</v>
-      </c>
-      <c r="E7" s="3">
-        <v>16</v>
-      </c>
-      <c r="G7" s="6"/>
+      <c r="D8" s="3">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>

--- a/Assets/Shared/ExcelImporter/Excels/ProbabilityDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/ProbabilityDataSheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EFD20F-D0D9-4A27-B4CD-1A0083372260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2306F718-B59B-4331-B836-1A4961C23449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
   </bookViews>
   <sheets>
-    <sheet name="ProbabilityDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="ProbabilityExcelDatas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
